--- a/web/public/template/用户批量添加模板.xlsx
+++ b/web/public/template/用户批量添加模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纯中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +178,62 @@
   </si>
   <si>
     <t>新增数据（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段（中文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段（英文）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -587,177 +639,218 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3">
-        <v>13333333333</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>40</v>
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3">
+        <v>13333333333</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/web/public/template/用户批量添加模板.xlsx
+++ b/web/public/template/用户批量添加模板.xlsx
@@ -177,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增数据（自定义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +230,10 @@
   </si>
   <si>
     <t>字段（英文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增数据（自定义，数据从该行开始）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,12 +617,12 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.92578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.0703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.640625" style="2" customWidth="1"/>
@@ -639,48 +639,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/web/public/template/用户批量添加模板.xlsx
+++ b/web/public/template/用户批量添加模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\stellar\web\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -168,26 +168,27 @@
     <t>这是我的自我介绍</t>
   </si>
   <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门ID，多个使用英文逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>新增数据（自定义，数据从该行开始）</t>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门ID，多个使用英文逗号分隔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,34 +197,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="华文宋体"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="华文宋体"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +248,14 @@
         <fgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -264,38 +278,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,12 +619,12 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.61328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.61328125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.921875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.69140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.53515625" style="2" bestFit="1" customWidth="1"/>
@@ -626,7 +639,7 @@
     <col min="14" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -708,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -749,7 +762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -778,7 +791,7 @@
         <v>39</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>40</v>
@@ -790,7 +803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -819,25 +832,37 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>49</v>
-      </c>
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/web/public/template/用户批量添加模板.xlsx
+++ b/web/public/template/用户批量添加模板.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18197" windowHeight="8503"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -48,13 +43,13 @@
     <t>gender</t>
   </si>
   <si>
-    <t>departments</t>
-  </si>
-  <si>
-    <t>jobPositions</t>
-  </si>
-  <si>
-    <t>role</t>
+    <t>systemDepartments</t>
+  </si>
+  <si>
+    <t>systemJobPositions</t>
+  </si>
+  <si>
+    <t>systemRole</t>
   </si>
   <si>
     <t>description</t>
@@ -141,6 +136,9 @@
     <t>1（男），2（女），3（未知）</t>
   </si>
   <si>
+    <t>部门ID，多个使用英文逗号分隔</t>
+  </si>
+  <si>
     <t>岗位ID，多个使用英文逗号分隔</t>
   </si>
   <si>
@@ -165,57 +163,37 @@
     <t>edison@ezops.cn</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>这是我的自我介绍</t>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门ID，多个使用英文逗号分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增数据（自定义，数据从该行开始）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFffffff"/>
       <name val="华文宋体"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -245,13 +223,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
+        <fgColor rgb="FFdae3f3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,16 +242,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -282,47 +259,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+  <cellXfs count="15">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -333,10 +322,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -374,71 +363,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,7 +455,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -489,11 +478,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -502,13 +491,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -518,7 +507,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -527,7 +516,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -536,7 +525,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -544,10 +533,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -618,35 +607,33 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.61328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="26.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" style="12" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="24.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -658,13 +645,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -673,21 +660,21 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -699,13 +686,13 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -714,156 +701,154 @@
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6">
+        <v>12345678</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="6">
+        <v>13333333333</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="3">
-        <v>13333333333</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/web/public/template/用户批量添加模板.xlsx
+++ b/web/public/template/用户批量添加模板.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\stellar\web\public\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18197" windowHeight="8503"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -178,20 +183,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="华文宋体"/>
       <family val="2"/>
     </font>
@@ -208,6 +212,13 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -223,12 +234,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdae3f3"/>
+        <fgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -242,16 +253,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -259,59 +270,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -322,10 +318,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -363,71 +359,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,7 +451,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -478,11 +474,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -491,13 +487,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -507,7 +503,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -516,7 +512,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -525,7 +521,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -533,10 +529,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -607,33 +603,35 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="12" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="32.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="26.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.23046875" style="4"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -645,13 +643,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -660,21 +658,21 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -686,13 +684,13 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -701,21 +699,21 @@
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -724,131 +722,133 @@
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>12345678</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>13333333333</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>